--- a/src/main/resources/xlsx-templates/mas-report-5.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-portal-api\src\main\resources\xlsx-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8D067D-F558-49BC-A35E-6C54FA0767A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC78427-5D8F-4F95-A60A-77A54E3BB0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="375" windowWidth="15240" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 Summary" sheetId="5" r:id="rId1"/>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -300,9 +303,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -324,16 +327,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,10 +345,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +569,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,9 +616,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
